--- a/assets/formatos_cargue/11_formato_generar_flipbooks.xlsx
+++ b/assets/formatos_cargue/11_formato_generar_flipbooks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ele4\assets\formatos_cargue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\editores\assets\formatos_cargue\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -97,7 +97,10 @@
           <t xml:space="preserve">
 0 &gt; Contenido normal
 1 &gt; Taller docente
-3 &gt; Contenido Unidades Temáticas</t>
+3 &gt; Contenido Unidades Temáticas
+4 &gt; Clase dinámica
+5 &gt; Lectura
+6 &gt; Artículos HTML</t>
         </r>
       </text>
     </comment>
@@ -120,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,10 +541,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>4355</v>
+        <v>4922</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
